--- a/cbrunner/Parameters/Parameters_InsectComp1.xlsx
+++ b/cbrunner/Parameters/Parameters_InsectComp1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBDDA7-9990-477D-9293-9FE8DBD37CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F7D741-0147-4B7D-AE8E-5AB3645E7D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{8D94783A-D65D-497C-8209-138820888057}"/>
+    <workbookView xWindow="948" yWindow="60" windowWidth="16164" windowHeight="11244" xr2:uid="{8D94783A-D65D-497C-8209-138820888057}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
   <si>
     <t>IBM</t>
   </si>
@@ -99,13 +99,25 @@
   </si>
   <si>
     <t>Insect Name</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Westfall and Duthie-Holt, 2021</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Mortality (Kurz et al. 2008, SI Table S4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +132,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -151,6 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,9 +188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -209,7 +228,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -315,7 +334,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,22 +484,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17280A96-2DFB-4CA3-A1FB-66CC8F417006}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E24"/>
+      <selection activeCell="D2" sqref="D2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -496,8 +517,14 @@
       <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -513,8 +540,12 @@
       <c r="E2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -528,10 +559,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -545,10 +580,14 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -562,10 +601,14 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -581,8 +624,12 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -596,10 +643,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -613,10 +664,14 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -630,10 +685,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -649,8 +708,14 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -664,10 +729,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -681,10 +752,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -698,10 +775,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -717,8 +800,11 @@
       <c r="E14" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -732,10 +818,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -749,10 +838,13 @@
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -766,10 +858,13 @@
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -785,8 +880,11 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -802,8 +900,11 @@
       <c r="E19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -819,8 +920,11 @@
       <c r="E20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -836,8 +940,11 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -853,8 +960,11 @@
       <c r="E22" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -870,8 +980,11 @@
       <c r="E23" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -887,8 +1000,11 @@
       <c r="E24" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -903,6 +1019,9 @@
       </c>
       <c r="E25" s="1">
         <v>100</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
